--- a/backend/uploads/file_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B79295-88B8-4BA5-9F44-2A08AD2E0707}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B62C796-B0A4-436F-83E1-9A34A538D53A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16470" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -100,17 +100,20 @@
     <t>CPMK5</t>
   </si>
   <si>
-    <t>I0716001</t>
-  </si>
-  <si>
-    <t>Adip Safiudin</t>
+    <t>I0716005</t>
+  </si>
+  <si>
+    <t>I0716006</t>
+  </si>
+  <si>
+    <t>I0716007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +129,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -590,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,23 +782,60 @@
       <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
+      <c r="D16">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +857,7 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:H12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/backend/uploads/file_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B62C796-B0A4-436F-83E1-9A34A538D53A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB56FA-635F-4A37-9C82-DD55C5582176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="16470" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>I0716007</t>
+  </si>
+  <si>
+    <t>I0715004</t>
+  </si>
+  <si>
+    <t>I0715014</t>
+  </si>
+  <si>
+    <t>I0714012</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +841,70 @@
         <v>78</v>
       </c>
       <c r="G17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <v>76</v>
+      </c>
+      <c r="G20">
+        <v>86</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
